--- a/biology/Botanique/Ancolie_du_Canada/Ancolie_du_Canada.xlsx
+++ b/biology/Botanique/Ancolie_du_Canada/Ancolie_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquilegia canadensis
 L'Ancolie du Canada (Aquilegia canadensis) est une espèce de plantes à fleurs de la famille des Ranunculaceae. On la trouve de l'Est du Canada jusqu'au Sud des États-Unis. Elle résiste bien au froid et au gel.  
@@ -514,14 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Ancolie du Canada est une plante herbacée vivace haute jusqu'à 100 cm. La tige a un diamètre de 30 cm. Les feuilles sont vert foncé, plumeuses et divisées en folioles de 2 cm de long maximum[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ancolie du Canada est une plante herbacée vivace haute jusqu'à 100 cm. La tige a un diamètre de 30 cm. Les feuilles sont vert foncé, plumeuses et divisées en folioles de 2 cm de long maximum.
 			Illustration.
 			Feuilles.
-Appareil reproducteur
-La floraison a lieu d'avril à juillet. Les hampes florales comportent chacune une vingtaine de fleurs inclinées, d'environ 2 cm de long. Les sépales sont de couleur écarlate. Les pétales, jaune vif, s'effilent en un éperon rouge érigé[1].
-			Fleur et gousse.
-			Fleur.
 </t>
         </is>
       </c>
@@ -547,12 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pollinisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les fleurs rouge écarlate de l'ancolie attirent les colibris de mai à juillet[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à juillet. Les hampes florales comportent chacune une vingtaine de fleurs inclinées, d'environ 2 cm de long. Les sépales sont de couleur écarlate. Les pétales, jaune vif, s'effilent en un éperon rouge érigé.
+			Fleur et gousse.
+			Fleur.
 </t>
         </is>
       </c>
@@ -578,12 +599,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ancolie du Canada pousse dans les escarpements rocheux comme les falaises et les talus d'éboulis[1],[3].
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs rouge écarlate de l'ancolie attirent les colibris de mai à juillet.
 </t>
         </is>
       </c>
@@ -609,10 +632,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ancolie du Canada pousse dans les escarpements rocheux comme les falaises et les talus d'éboulis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancolie_du_Canada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancolie_du_Canada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquilegia canadensis est une plante très décorative, appréciée pour son feuillage attrayant et ses fleurs voyantes. Pour cette raison, elle est largement cultivée en dehors de sa région d'origine, dans les régions tempérées de l'hémisphère nord.
 La plante se multiplie facilement à partir de graines et fleurit la deuxième année après le semis. Elle vit relativement longtemps dans le jardin et pousse bien à l'ombre et au soleil avec une bonne humidité.
@@ -621,33 +679,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ancolie_du_Canada</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ancolie_du_Canada</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ancolie du Canada contient un glycoside cyanogène, qui libère du cyanure d'hydrogène toxique lorsque la plante est endommagée[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ancolie du Canada contient un glycoside cyanogène, qui libère du cyanure d'hydrogène toxique lorsque la plante est endommagée.
 </t>
         </is>
       </c>
